--- a/docs/mcode-r4/obf-lab-QuantityWithRequiredUnits.xlsx
+++ b/docs/mcode-r4/obf-lab-QuantityWithRequiredUnits.xlsx
@@ -143,7 +143,7 @@
     <t>obf-lab-QuantityWithRequiredUnits</t>
   </si>
   <si>
-    <t>A quantity with that requires a coded unit of measure.</t>
+    <t>A quantity that requires a coded unit of measure.</t>
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
